--- a/data/trans_dic/CONS_TEN-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TEN-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>8,44%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,7; 16,56</t>
+          <t>17,19; 23,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,24; 23,8</t>
+          <t>16,54; 24,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,11; 23,78</t>
+          <t>8,22; 13,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 10,22</t>
+          <t>6,48; 10,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,32</t>
+          <t>9,87; 16,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 9,3</t>
+          <t>4,23; 8,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 12,62</t>
+          <t>12,41; 16,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,49; 18,59</t>
+          <t>14,42; 19,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,65; 15,99</t>
+          <t>6,83; 10,35</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>9,45%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,08; 20,72</t>
+          <t>17,73; 26,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,65; 24,38</t>
+          <t>15,12; 23,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 24,07</t>
+          <t>10,28; 17,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 10,93</t>
+          <t>9,74; 15,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,12; 15,22</t>
+          <t>11,18; 18,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,12; 14,9</t>
+          <t>4,35; 9,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,14; 14,93</t>
+          <t>14,09; 18,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,8; 19,4</t>
+          <t>14,55; 19,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,76; 17,99</t>
+          <t>7,64; 11,74</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>25,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>24,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>13,82%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,54; 21,84</t>
+          <t>22,76; 28,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 23,44</t>
+          <t>3,21; 25,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,82; 29,11</t>
+          <t>9,87; 16,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,04; 25,31</t>
+          <t>17,25; 26,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,81; 28,91</t>
+          <t>18,95; 31,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,72; 25,41</t>
+          <t>11,43; 23,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,7; 21,1</t>
+          <t>22,12; 27,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,63; 23,67</t>
+          <t>4,04; 25,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,72; 27,21</t>
+          <t>11,11; 17,01</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>12,72%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,42; 21,94</t>
+          <t>19,22; 25,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,71; 24,37</t>
+          <t>16,7; 23,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,94; 24,66</t>
+          <t>12,48; 18,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 15,57</t>
+          <t>15,86; 21,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,04; 49,82</t>
+          <t>13,71; 76,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 20,84</t>
+          <t>7,88; 12,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,55; 17,81</t>
+          <t>18,37; 22,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,78; 38,91</t>
+          <t>16,77; 60,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,59; 21,97</t>
+          <t>10,87; 14,77</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>12,74%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,09; 18,22</t>
+          <t>17,63; 25,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,85; 23,5</t>
+          <t>13,84; 24,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,62; 26,76</t>
+          <t>8,88; 16,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,47; 20,4</t>
+          <t>19,7; 26,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,57; 30,24</t>
+          <t>13,42; 27,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,34; 26,99</t>
+          <t>9,62; 17,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,97; 17,88</t>
+          <t>19,88; 24,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,74; 27,21</t>
+          <t>14,9; 25,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,58; 26,49</t>
+          <t>9,93; 15,53</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>26,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>17,56%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,45</t>
+          <t>2,31; 9,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,25</t>
+          <t>0,55; 5,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,52</t>
+          <t>0,0; 40,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,57; 46,12</t>
+          <t>23,89; 31,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,42; 30,56</t>
+          <t>23,41; 30,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,24; 28,25</t>
+          <t>4,23; 48,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,26; 32,55</t>
+          <t>18,79; 24,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,49; 23,82</t>
+          <t>17,57; 23,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,54; 20,45</t>
+          <t>7,2; 33,97</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>11,16%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,7; 17,75</t>
+          <t>19,85; 22,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,91; 20,71</t>
+          <t>11,27; 19,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,01; 22,52</t>
+          <t>11,5; 14,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 12,93</t>
+          <t>16,84; 19,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,52; 31,69</t>
+          <t>18,39; 47,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,81; 18,99</t>
+          <t>8,14; 10,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,83; 14,91</t>
+          <t>18,66; 20,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,8; 26,51</t>
+          <t>16,8; 33,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,79; 20,42</t>
+          <t>10,23; 12,13</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para la tensión arterial</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29277</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>74837</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>31989</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11861</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>37786</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16315</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>41137</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>112623</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>48305</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25066; 33534</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>60647; 90588</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24301; 40438</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9259; 14780</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>29511; 48337</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11712; 23488</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35828; 46720</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>95974; 131498</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>39099; 59205</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17422</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>62283</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25719</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13328</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>37524</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14702</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>30750</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>99807</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>40421</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14395; 21207</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>48861; 75996</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>20133; 33811</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10631; 16419</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>29070; 46929</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10085; 21213</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>26819; 35333</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>84870; 114814</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>32660; 50201</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>42234</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>53753</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22530</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13543</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>24444</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13913</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>55777</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>78197</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>36443</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>37301; 47308</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15247; 119215</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17855; 29399</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10894; 16439</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18487; 31029</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9460; 19229</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>50213; 61686</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23127; 146491</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29296; 44854</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>37437</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>105411</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>47479</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>32287</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>267954</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31968</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>69724</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>373365</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>79447</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>32699; 42597</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>89538; 124517</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>38506; 56984</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>28100; 37306</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>87255; 486558</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>24911; 40782</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>63808; 77209</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>196712; 709822</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>67861; 92237</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16664</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>39618</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>18353</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>30462</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>93997</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>20561</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>47126</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>133615</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>38914</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13547; 19894</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>29235; 51277</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13349; 25036</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26182; 34663</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>56897; 118150</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14923; 26596</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>41708; 52425</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>94663; 161919</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>30317; 47411</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2377</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3349</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1253</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>32717</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>129477</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2396</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>35094</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>132826</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3649</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1047; 4297</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>923; 8864</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3762</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>28260; 36728</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>114702; 147352</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>483; 5545</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>30736; 39906</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>115374; 154120</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1497; 7060</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1630</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>145411</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>339251</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>147324</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>134197</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>591182</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>99856</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>279608</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>930434</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>247179</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>135608; 154721</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>234311; 397473</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>131134; 164168</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>125201; 143383</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>405920; 1053800</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>87460; 114209</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>266268; 293343</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>720215; 1452387</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>226428; 268651</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_TEN-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TEN-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial</t>
+          <t>Consumo de medicamentos para la tensión arterial (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial</t>
+          <t>Consumo de medicamentos para la tensión arterial (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_TEN-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TEN-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,19; 23,0</t>
+          <t>16,44; 21,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,54; 24,7</t>
+          <t>16,55; 24,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,34</t>
+          <t>6,96; 10,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,87; 16,17</t>
+          <t>9,76; 16,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,41; 16,18</t>
+          <t>12,15; 15,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,42; 19,76</t>
+          <t>14,43; 19,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,73; 26,13</t>
+          <t>17,49; 25,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 23,52</t>
+          <t>14,81; 23,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,74; 15,05</t>
+          <t>9,6; 14,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 18,04</t>
+          <t>11,21; 18,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,09; 18,57</t>
+          <t>13,44; 17,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,55; 19,69</t>
+          <t>14,68; 20,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,76; 28,87</t>
+          <t>20,09; 26,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 25,08</t>
+          <t>3,06; 24,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,25; 26,03</t>
+          <t>18,51; 27,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,95; 31,8</t>
+          <t>18,45; 32,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,12; 27,17</t>
+          <t>20,92; 25,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 25,57</t>
+          <t>4,2; 25,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,22; 25,04</t>
+          <t>17,52; 23,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,7; 23,22</t>
+          <t>16,81; 23,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,86; 21,06</t>
+          <t>15,28; 20,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,71; 76,43</t>
+          <t>13,93; 77,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,37; 22,23</t>
+          <t>17,01; 20,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,77; 60,52</t>
+          <t>16,65; 59,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,63; 25,89</t>
+          <t>16,23; 23,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,84; 24,28</t>
+          <t>13,9; 24,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,7; 26,08</t>
+          <t>19,41; 25,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,42; 27,87</t>
+          <t>12,49; 27,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,88; 24,99</t>
+          <t>18,89; 24,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,9; 25,49</t>
+          <t>14,37; 25,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 9,49</t>
+          <t>1,33; 5,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,32</t>
+          <t>0,56; 5,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,89; 31,05</t>
+          <t>20,54; 27,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,41; 30,07</t>
+          <t>23,27; 30,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,79; 24,4</t>
+          <t>14,89; 19,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,57; 23,47</t>
+          <t>17,57; 23,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,85; 22,65</t>
+          <t>17,98; 20,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,27; 19,11</t>
+          <t>10,41; 19,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,84; 19,28</t>
+          <t>15,82; 18,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,39; 47,75</t>
+          <t>18,62; 47,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,66; 20,56</t>
+          <t>17,29; 18,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,8; 33,88</t>
+          <t>16,83; 34,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29277</t>
+          <t>30714</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11861</t>
+          <t>15180</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41137</t>
+          <t>45894</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25066; 33534</t>
+          <t>26759; 35346</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>60647; 90588</t>
+          <t>60688; 88802</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9259; 14780</t>
+          <t>11739; 18348</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29511; 48337</t>
+          <t>29159; 48167</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35828; 46720</t>
+          <t>40272; 51994</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>95974; 131498</t>
+          <t>96025; 129764</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17422</t>
+          <t>19129</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13328</t>
+          <t>14338</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30750</t>
+          <t>33466</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14395; 21207</t>
+          <t>15814; 22970</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48861; 75996</t>
+          <t>47870; 75668</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10631; 16419</t>
+          <t>11773; 17866</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29070; 46929</t>
+          <t>29148; 46874</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26819; 35333</t>
+          <t>28636; 38331</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>84870; 114814</t>
+          <t>85619; 117471</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42234</t>
+          <t>35919</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13543</t>
+          <t>14040</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55777</t>
+          <t>49959</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>37301; 47308</t>
+          <t>30917; 40145</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15247; 119215</t>
+          <t>14547; 118020</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10894; 16439</t>
+          <t>11404; 17220</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18487; 31029</t>
+          <t>18001; 31779</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>50213; 61686</t>
+          <t>45089; 55360</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23127; 146491</t>
+          <t>24040; 143419</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>37437</t>
+          <t>34148</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>32287</t>
+          <t>32247</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>69724</t>
+          <t>66395</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32699; 42597</t>
+          <t>29736; 39111</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89538; 124517</t>
+          <t>90119; 124385</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28100; 37306</t>
+          <t>27846; 36803</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>87255; 486558</t>
+          <t>88690; 496492</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>63808; 77209</t>
+          <t>59861; 72515</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>196712; 709822</t>
+          <t>195239; 698721</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16664</t>
+          <t>14693</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30462</t>
+          <t>28148</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>47126</t>
+          <t>42841</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>13547; 19894</t>
+          <t>12081; 17710</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>29235; 51277</t>
+          <t>29368; 51355</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26182; 34663</t>
+          <t>24340; 32316</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>56897; 118150</t>
+          <t>52934; 116581</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>41708; 52425</t>
+          <t>37761; 48028</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>94663; 161919</t>
+          <t>91299; 159375</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2377</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>32717</t>
+          <t>28973</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>35094</t>
+          <t>30583</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1047; 4297</t>
+          <t>739; 2931</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>923; 8864</t>
+          <t>926; 9658</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>28260; 36728</t>
+          <t>25187; 33487</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>114702; 147352</t>
+          <t>114013; 147740</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>30736; 39906</t>
+          <t>26527; 34924</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>115374; 154120</t>
+          <t>115413; 152204</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>145411</t>
+          <t>136214</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>134197</t>
+          <t>132925</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>279608</t>
+          <t>269139</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>135608; 154721</t>
+          <t>127114; 145485</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>234311; 397473</t>
+          <t>216417; 396900</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>125201; 143383</t>
+          <t>123917; 142382</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>405920; 1053800</t>
+          <t>410858; 1052724</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>266268; 293343</t>
+          <t>257593; 282567</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>720215; 1452387</t>
+          <t>721526; 1481767</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_TEN-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TEN-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>18,87%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>20,41%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,82%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5,9%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>9,01%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>12,64%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>5,9%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>17,15%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>13,85%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>16,92%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>8,44%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>16,33; 23,91</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8,22; 13,68</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>16,44; 21,71</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>16,55; 24,22</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>8,22; 13,68</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>10,51; 17,01</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 8,49</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>6,96; 10,88</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>9,76; 16,11</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4,23; 8,49</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>14,68; 19,65</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6,83; 10,35</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>12,15; 15,69</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>14,43; 19,5</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>6,83; 10,35</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>19,05%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13,14%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>21,15%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>19,27%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>13,14%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>14,6%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>11,69%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,43%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,34%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>17,03%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>15,71%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>17,11%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>9,45%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>14,6; 23,16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10,28; 17,27</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>17,49; 25,4</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>14,81; 23,41</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>10,28; 17,27</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>11,29; 18,08</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4,35; 9,14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>9,6; 14,56</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>11,21; 18,02</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,35; 9,14</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>14,59; 19,94</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7,64; 11,74</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>13,44; 17,99</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>14,68; 20,14</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>7,64; 11,74</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>22,01%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>23,34%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,31%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>12,46%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>24,83%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16,8%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>22,79%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>25,05%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>16,8%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>22,86%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13,82%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>23,18%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>13,65%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>13,82%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>17,6; 27,8</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9,87; 16,25</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>20,09; 26,09</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,06; 24,82</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>9,87; 16,25</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>18,49; 32,19</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11,43; 23,22</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>18,51; 27,95</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>18,45; 32,57</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>11,43; 23,22</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>19,01; 26,69</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 17,01</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>20,92; 25,69</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>4,2; 25,03</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>11,11; 17,01</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>18,63%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15,39%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>20,12%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>19,66%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>15,39%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>14,31%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>17,7%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>42,09%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10,12%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>16,71%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12,72%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>18,87%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>31,84%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>12,72%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>15,98; 22,04</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12,48; 18,48</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>17,52; 23,04</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>16,81; 23,2</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>12,48; 18,48</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>11,95; 16,94</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7,88; 12,91</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>15,28; 20,2</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>13,93; 77,99</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7,88; 12,91</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>14,82; 18,66</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10,87; 14,77</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>17,01; 20,61</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>16,65; 59,58</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>10,87; 14,77</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12,21%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>19,74%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>18,76%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>12,21%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>24,94%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>22,44%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>22,17%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>13,26%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>22,25%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12,74%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>21,43%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>21,04%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>12,74%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>13,77; 23,18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,88; 16,66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>16,23; 23,79</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>13,9; 24,31</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>8,88; 16,66</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>21,66; 28,29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9,62; 17,15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>19,41; 25,77</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>12,49; 27,5</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>9,62; 17,15</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>19,55; 25,2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9,93; 15,53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>18,89; 24,03</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>14,37; 25,09</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>9,93; 15,53</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13,41%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>2,9%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>13,41%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>25,95%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>23,63%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>26,43%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>20,96%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>20,28%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>17,56%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>17,16%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>20,23%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>17,56%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,53; 5,51</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 40,24</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1,33; 5,27</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 5,79</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 40,24</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>22,91; 29,57</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 48,49</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>20,54; 27,31</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>23,27; 30,15</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4,23; 48,49</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>17,7; 22,97</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7,2; 33,97</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>14,89; 19,6</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>17,57; 23,18</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>7,2; 33,97</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>17,94%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12,92%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>19,27%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>16,31%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>12,92%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>19,72%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>16,98%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>26,79%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>9,3%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>18,86%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11,16%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>18,06%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>21,71%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>11,16%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>16,42; 19,59</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11,5; 14,4</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>17,98; 20,58</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>10,41; 19,09</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>11,5; 14,4</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>18,45; 21,2</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8,14; 10,63</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>15,82; 18,18</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>18,62; 47,7</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>8,14; 10,63</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>17,85; 19,96</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10,23; 12,13</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>17,29; 18,96</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>16,83; 34,57</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>10,23; 12,13</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>171</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>79</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>250</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>105</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>79341</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>31989</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>30714</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>74837</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>31989</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>44664</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16315</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>15180</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>37786</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>16315</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>124006</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>48305</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>45894</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>112623</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>48305</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>64573; 94525</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>24301; 40438</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>26759; 35346</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>60688; 88802</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>24301; 40438</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>34432; 55715</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11712; 23488</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>11739; 18348</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>29159; 48167</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>11712; 23488</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>106136; 142101</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>39099; 59205</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>40272; 51994</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>96025; 129764</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>39099; 59205</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>106</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>80</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>186</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>94</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>65437</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25719</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>19129</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>62283</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>25719</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>41890</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14702</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>14338</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>37524</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>14702</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>107327</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>40421</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>33466</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>99807</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>40421</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>50154; 79524</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20133; 33811</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>15814; 22970</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>47870; 75668</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>20133; 33811</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>32396; 51884</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10085; 21213</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>11773; 17866</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>29148; 46874</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>10085; 21213</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>91979; 125670</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>32660; 50201</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>28636; 38331</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>85619; 117471</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>32660; 50201</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>230</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>85</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>315</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>93</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>57354</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22530</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>35919</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>53753</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>22530</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>27680</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13913</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>14040</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>24444</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>13913</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>85034</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>36443</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>49959</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>78197</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>36443</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>45862; 72426</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17855; 29399</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>30917; 40145</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>14547; 118020</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>17855; 29399</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>20614; 35885</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9460; 19229</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>11404; 17220</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>18001; 31779</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9460; 19229</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>70722; 99289</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29296; 44854</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>45089; 55360</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>24040; 143419</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>29296; 44854</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>216</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>193</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>409</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>184</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>113662</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>47479</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>34148</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>105411</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>47479</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>70151</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>31968</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>32247</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>267954</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>31968</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>183814</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>79447</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>66395</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>373365</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>79447</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>97472; 134460</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>38506; 56984</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>29736; 39111</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>90119; 124385</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>38506; 56984</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>58559; 83053</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>24911; 40782</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>27846; 36803</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>88690; 496492</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>24911; 40782</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>163048; 205303</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>67861; 92237</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>59861; 72515</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>195239; 698721</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>67861; 92237</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>98</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>174</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>272</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>83</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>45388</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>18353</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>14693</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>39618</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>18353</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>101774</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20561</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>28148</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>93997</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>20561</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>147162</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>38914</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>42841</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>133615</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>38914</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>34879; 58736</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13349; 25036</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>12081; 17710</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>29368; 51355</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>13349; 25036</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>88386; 115426</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14923; 26596</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>24340; 32316</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>52934; 116581</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>14923; 26596</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>129323; 166657</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>30317; 47411</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>37761; 48028</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>91299; 159375</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>30317; 47411</t>
         </is>
       </c>
     </row>
@@ -2364,47 +2364,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>188</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>198</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>3347</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1253</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>1611</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>3349</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1253</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>141898</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2396</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>28973</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>129477</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>2396</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>145245</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3649</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>30583</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>132826</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>3649</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>903; 9332</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3762</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>739; 2931</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>926; 9658</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>0; 3762</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>125275; 161731</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>483; 5545</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>25187; 33487</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>114013; 147740</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>483; 5545</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>126813; 164531</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1497; 7060</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>26527; 34924</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>115413; 152204</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>1497; 7060</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>831</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>799</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>715</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>1630</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>1166</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>565</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>364530</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>147324</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>136214</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>339251</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>147324</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>428058</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>99856</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>132925</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>591182</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>99856</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>792589</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>247179</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>269139</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>930434</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>247179</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>333672; 398199</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>131134; 164168</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>127114; 145485</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>216417; 396900</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>131134; 164168</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>400592; 460255</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>87460; 114209</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>123917; 142382</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>410858; 1052724</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>87460; 114209</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>750262; 838962</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>226428; 268651</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>257593; 282567</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>721526; 1481767</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>226428; 268651</t>
         </is>
       </c>
     </row>
